--- a/BDD/Exercices/voitures.xlsx
+++ b/BDD/Exercices/voitures.xlsx
@@ -1595,16 +1595,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="45.5703125" customWidth="1"/>
+    <col min="12" max="12" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1641,6 +1642,10 @@
         <f>VLOOKUP(C2,J:L,2,0)</f>
         <v>1</v>
       </c>
+      <c r="E2" t="str">
+        <f>"insert into modeles values ("""&amp;A2&amp;""","""&amp;B2&amp;""","""&amp;D2&amp;""");"</f>
+        <v>insert into modeles values ("1","159","1");</v>
+      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -1666,6 +1671,10 @@
         <f t="shared" ref="D3:D66" si="0">VLOOKUP(C3,J:L,2,0)</f>
         <v>1</v>
       </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">"insert into modeles values ("""&amp;A3&amp;""","""&amp;B3&amp;""","""&amp;D3&amp;""");"</f>
+        <v>insert into modeles values ("2","NULL","1");</v>
+      </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -1691,6 +1700,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("3","8C ","1");</v>
+      </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -1698,8 +1711,8 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>"insert into Marques("""&amp;K4&amp;""","""&amp;J4&amp;""");"</f>
-        <v>insert into Marques("3","BENTLEY ");</v>
+        <f>"insert into Marques values ("""&amp;K4&amp;""","""&amp;J4&amp;""");"</f>
+        <v>insert into Marques values ("3","BENTLEY ");</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1716,6 +1729,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("4","A5","1");</v>
+      </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -1723,8 +1740,8 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f t="shared" ref="L3:L44" si="1">"insert into Marques("""&amp;K5&amp;""","""&amp;J5&amp;""");"</f>
-        <v>insert into Marques("4","BMW ");</v>
+        <f t="shared" ref="L5:L44" si="2">"insert into Marques values ("""&amp;K5&amp;""","""&amp;J5&amp;""");"</f>
+        <v>insert into Marques values ("4","BMW ");</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,6 +1758,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("5","GIULIETTA ","1");</v>
+      </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -1748,8 +1769,8 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("5","CADILLAC ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("5","CADILLAC ");</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1766,6 +1787,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("6","MITO ","1");</v>
+      </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1773,8 +1798,8 @@
         <v>6</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("6","CHEVROLET ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("6","CHEVROLET ");</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1791,6 +1816,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("7","SPIDER ","1");</v>
+      </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
@@ -1798,8 +1827,8 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("7","CITROEN ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("7","CITROEN ");</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1816,6 +1845,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("8","A1 ","2");</v>
+      </c>
       <c r="J9" t="s">
         <v>7</v>
       </c>
@@ -1823,8 +1856,8 @@
         <v>8</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("8","DACIA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("8","DACIA ");</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1841,6 +1874,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("9","A3 ","2");</v>
+      </c>
       <c r="J10" t="s">
         <v>8</v>
       </c>
@@ -1848,8 +1885,8 @@
         <v>9</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("9","FERRARI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("9","FERRARI ");</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1866,6 +1903,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("10","A4 ","2");</v>
+      </c>
       <c r="J11" t="s">
         <v>9</v>
       </c>
@@ -1873,8 +1914,8 @@
         <v>10</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("10","FIAT ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("10","FIAT ");</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1891,6 +1932,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("11","A5 ","2");</v>
+      </c>
       <c r="J12" t="s">
         <v>10</v>
       </c>
@@ -1898,8 +1943,8 @@
         <v>11</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("11","FORD ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("11","FORD ");</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1916,6 +1961,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("12","A6 ","2");</v>
+      </c>
       <c r="J13" t="s">
         <v>11</v>
       </c>
@@ -1923,8 +1972,8 @@
         <v>12</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("12","HONDA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("12","HONDA ");</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1941,6 +1990,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("13","A7 ","2");</v>
+      </c>
       <c r="J14" t="s">
         <v>12</v>
       </c>
@@ -1948,8 +2001,8 @@
         <v>13</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("13","HYUNDAI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("13","HYUNDAI ");</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1966,6 +2019,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("14","A8 ","2");</v>
+      </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
@@ -1973,8 +2030,8 @@
         <v>14</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("14","INFINITI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("14","INFINITI ");</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1991,6 +2048,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("15","Q3 ","2");</v>
+      </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
@@ -1998,8 +2059,8 @@
         <v>15</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("15","JAGUAR ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("15","JAGUAR ");</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2016,6 +2077,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("16","Q5 ","2");</v>
+      </c>
       <c r="J17" t="s">
         <v>15</v>
       </c>
@@ -2023,8 +2088,8 @@
         <v>16</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("16","JEEP ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("16","JEEP ");</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,6 +2106,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("17","Q7 ","2");</v>
+      </c>
       <c r="J18" t="s">
         <v>16</v>
       </c>
@@ -2048,8 +2117,8 @@
         <v>17</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("17","KIA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("17","KIA ");</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2066,6 +2135,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("18","R8 ","2");</v>
+      </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
@@ -2073,8 +2146,8 @@
         <v>18</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("18","LADA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("18","LADA ");</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2091,6 +2164,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("19","TT ","2");</v>
+      </c>
       <c r="J20" t="s">
         <v>18</v>
       </c>
@@ -2098,8 +2175,8 @@
         <v>19</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("19","LAMBORGHINI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("19","LAMBORGHINI ");</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2116,6 +2193,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("20","CONTINENTAL ","3");</v>
+      </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2204,8 @@
         <v>20</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("20","LANCIA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("20","LANCIA ");</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2141,6 +2222,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("21","FLYING SPUR ","3");</v>
+      </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
@@ -2148,8 +2233,8 @@
         <v>21</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("21","LAND ROVER ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("21","LAND ROVER ");</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2166,6 +2251,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("22","MULSANNE ","3");</v>
+      </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
@@ -2173,8 +2262,8 @@
         <v>22</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("22","LEXUS ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("22","LEXUS ");</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,6 +2280,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("23","114","4");</v>
+      </c>
       <c r="J24" t="s">
         <v>22</v>
       </c>
@@ -2198,8 +2291,8 @@
         <v>23</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("23","MASERATI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("23","MASERATI ");</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2216,6 +2309,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("24","116","4");</v>
+      </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
@@ -2223,8 +2320,8 @@
         <v>24</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("24","MAZDA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("24","MAZDA ");</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2241,6 +2338,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("25","118","4");</v>
+      </c>
       <c r="J26" t="s">
         <v>24</v>
       </c>
@@ -2248,8 +2349,8 @@
         <v>25</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("25","MERCEDES ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("25","MERCEDES ");</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,6 +2367,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("26","120","4");</v>
+      </c>
       <c r="J27" t="s">
         <v>25</v>
       </c>
@@ -2273,8 +2378,8 @@
         <v>26</v>
       </c>
       <c r="L27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("26","MINI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("26","MINI ");</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2291,6 +2396,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("27","125","4");</v>
+      </c>
       <c r="J28" t="s">
         <v>26</v>
       </c>
@@ -2298,8 +2407,8 @@
         <v>27</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("27","MITSUBISHI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("27","MITSUBISHI ");</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2316,6 +2425,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("28","214","4");</v>
+      </c>
       <c r="J29" t="s">
         <v>27</v>
       </c>
@@ -2323,8 +2436,8 @@
         <v>28</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("28","NISSAN ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("28","NISSAN ");</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2341,6 +2454,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("29","216","4");</v>
+      </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
@@ -2348,8 +2465,8 @@
         <v>29</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("29","OPEL ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("29","OPEL ");</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2366,6 +2483,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("30","218","4");</v>
+      </c>
       <c r="J31" t="s">
         <v>29</v>
       </c>
@@ -2373,8 +2494,8 @@
         <v>30</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("30","PEUGEOT ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("30","PEUGEOT ");</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2391,6 +2512,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("31","220","4");</v>
+      </c>
       <c r="J32" t="s">
         <v>30</v>
       </c>
@@ -2398,8 +2523,8 @@
         <v>31</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("31","PORSCHE ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("31","PORSCHE ");</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2416,6 +2541,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("32","225","4");</v>
+      </c>
       <c r="J33" t="s">
         <v>31</v>
       </c>
@@ -2423,8 +2552,8 @@
         <v>32</v>
       </c>
       <c r="L33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("32","RENAULT ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("32","RENAULT ");</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2441,6 +2570,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("33","228","4");</v>
+      </c>
       <c r="J34" t="s">
         <v>32</v>
       </c>
@@ -2448,8 +2581,8 @@
         <v>33</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("33","ROLLS ROYCE ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("33","ROLLS ROYCE ");</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2466,6 +2599,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("34","235","4");</v>
+      </c>
       <c r="J35" t="s">
         <v>33</v>
       </c>
@@ -2473,8 +2610,8 @@
         <v>34</v>
       </c>
       <c r="L35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("34","SEAT ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("34","SEAT ");</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,6 +2628,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("35","316","4");</v>
+      </c>
       <c r="J36" t="s">
         <v>34</v>
       </c>
@@ -2498,8 +2639,8 @@
         <v>35</v>
       </c>
       <c r="L36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("35","SKODA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("35","SKODA ");</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2516,6 +2657,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("36","318","4");</v>
+      </c>
       <c r="J37" t="s">
         <v>35</v>
       </c>
@@ -2523,8 +2668,8 @@
         <v>36</v>
       </c>
       <c r="L37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("36","SMART ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("36","SMART ");</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2541,6 +2686,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("37","320","4");</v>
+      </c>
       <c r="J38" t="s">
         <v>36</v>
       </c>
@@ -2548,8 +2697,8 @@
         <v>37</v>
       </c>
       <c r="L38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("37","SSANGYONG ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("37","SSANGYONG ");</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2566,6 +2715,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("38","325","4");</v>
+      </c>
       <c r="J39" t="s">
         <v>37</v>
       </c>
@@ -2573,8 +2726,8 @@
         <v>38</v>
       </c>
       <c r="L39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("38","SUBARU ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("38","SUBARU ");</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2591,6 +2744,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("39","328","4");</v>
+      </c>
       <c r="J40" t="s">
         <v>38</v>
       </c>
@@ -2598,8 +2755,8 @@
         <v>39</v>
       </c>
       <c r="L40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("39","SUZUKI ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("39","SUZUKI ");</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2616,6 +2773,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("40","330","4");</v>
+      </c>
       <c r="J41" t="s">
         <v>39</v>
       </c>
@@ -2623,8 +2784,8 @@
         <v>40</v>
       </c>
       <c r="L41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("40","TESLA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("40","TESLA ");</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2641,6 +2802,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("41","335","4");</v>
+      </c>
       <c r="J42" t="s">
         <v>40</v>
       </c>
@@ -2648,8 +2813,8 @@
         <v>41</v>
       </c>
       <c r="L42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("41","TOYOTA ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("41","TOYOTA ");</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2666,6 +2831,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("42","418","4");</v>
+      </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
@@ -2673,8 +2842,8 @@
         <v>42</v>
       </c>
       <c r="L43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("42","VOLKSWAGEN ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("42","VOLKSWAGEN ");</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2691,6 +2860,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("43","420","4");</v>
+      </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
@@ -2698,8 +2871,8 @@
         <v>43</v>
       </c>
       <c r="L44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Marques("43","VOLVO ");</v>
+        <f t="shared" si="2"/>
+        <v>insert into Marques values ("43","VOLVO ");</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2716,6 +2889,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("44","425","4");</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -2731,6 +2908,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("45","428","4");</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -2746,6 +2927,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("46","430","4");</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -2761,8 +2946,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("47","435","4");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2776,8 +2965,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("48","518","4");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2791,8 +2984,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("49","520","4");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2806,8 +3003,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("50","525","4");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2821,8 +3022,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("51","528","4");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2836,8 +3041,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("52","530","4");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2851,8 +3060,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("53","535","4");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2866,8 +3079,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("54","550","4");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2881,8 +3098,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("55","640","4");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2896,8 +3117,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("56","650","4");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2911,8 +3136,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("57","730","4");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2926,8 +3155,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("58","740","4");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2941,8 +3174,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("59","750","4");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2956,8 +3193,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("60","760","4");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2971,8 +3212,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("61","I3 ","4");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2986,8 +3231,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("62","I8 ","4");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3001,8 +3250,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("63","M3 ","4");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3016,8 +3269,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("64","M4 ","4");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3031,8 +3288,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modeles values ("65","M5 ","4");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3043,11 +3304,15 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">VLOOKUP(C67,J:L,2,0)</f>
+        <f t="shared" ref="D67:D130" si="3">VLOOKUP(C67,J:L,2,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="4">"insert into modeles values ("""&amp;A67&amp;""","""&amp;B67&amp;""","""&amp;D67&amp;""");"</f>
+        <v>insert into modeles values ("66","SERIE 3 ACTIVEHYBRID ","4");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3058,11 +3323,15 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("67","SERIE 5 ACTIVEHYBRID ","4");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3073,11 +3342,15 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("68","SERIE 7 ACTIVEHYBRID ","4");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3088,11 +3361,15 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("69","X1 ","4");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3103,11 +3380,15 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("70","X3 ","4");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3118,11 +3399,15 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("71","X4 ","4");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3133,11 +3418,15 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("72","X5 ","4");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3148,11 +3437,15 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("73","X6 ","4");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3163,11 +3456,15 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("74","Z4 ","4");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3178,11 +3475,15 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("75","ATS ","5");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3193,11 +3494,15 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("76","CTS ","5");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3208,11 +3513,15 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("77","ESCALADE ","5");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3223,11 +3532,15 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("78","SRX ","5");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3238,11 +3551,15 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("79","CAMARO ","6");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3253,11 +3570,15 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("80","CORVETTE ","6");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3268,11 +3589,15 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("81","BERLINGO ","7");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3283,11 +3608,15 @@
         <v>6</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("82","C-ZERO ","7");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3298,11 +3627,15 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("83","C1 ","7");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3313,11 +3646,15 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("84","C3 ","7");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3328,11 +3665,15 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("85","C3 PICASSO ","7");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3343,11 +3684,15 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("86","C4 ","7");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3358,11 +3703,15 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("87","C4 AIRCROSS ","7");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3373,11 +3722,15 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("88","C4 CACTUS ","7");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3388,11 +3741,15 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("89","C4 PICASSO ","7");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3403,11 +3760,15 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("90","C5 ","7");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3418,11 +3779,15 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("91","C8 ","7");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3433,11 +3798,15 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("92","DS3 ","7");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3448,11 +3817,15 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("93","DS4 ","7");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3463,11 +3836,15 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("94","DS5 ","7");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3478,11 +3855,15 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("95","JUMPER ","7");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3493,11 +3874,15 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("96","JUMPY ","7");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3508,11 +3893,15 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("97","NEMO ","7");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3523,11 +3912,15 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("98","DOKKER ","8");</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3538,11 +3931,15 @@
         <v>7</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("99","DUSTER ","8");</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3553,11 +3950,15 @@
         <v>7</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("100","LODGY ","8");</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3568,11 +3969,15 @@
         <v>7</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("101","LOGAN ","8");</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3583,11 +3988,15 @@
         <v>7</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("102","SANDERO ","8");</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3598,11 +4007,15 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("103","458","9");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3613,11 +4026,15 @@
         <v>8</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("104","CALIFORNIA ","9");</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3628,11 +4045,15 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("105","F12 ","9");</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3643,11 +4064,15 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("106","FF ","9");</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3658,11 +4083,15 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("107","LAFERRARI ","9");</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3673,11 +4102,15 @@
         <v>9</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("108","500","10");</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3688,11 +4121,15 @@
         <v>9</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("109","500L ","10");</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3703,11 +4140,15 @@
         <v>9</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("110","BRAVO ","10");</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3718,11 +4159,15 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("111","DOBLO ","10");</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3733,11 +4178,15 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("112","DUCATO ","10");</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3748,11 +4197,15 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("113","FIORINO ","10");</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3763,11 +4216,15 @@
         <v>9</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("114","FREEMONT ","10");</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3778,11 +4235,15 @@
         <v>9</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("115","PANDA ","10");</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3793,11 +4254,15 @@
         <v>9</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("116","PUNTO ","10");</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3808,11 +4273,15 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("117","SCUDO ","10");</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3823,11 +4292,15 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("118","SEDICI ","10");</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3838,11 +4311,15 @@
         <v>10</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("119","B-MAX ","11");</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3853,11 +4330,15 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("120","C-MAX ","11");</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3868,11 +4349,15 @@
         <v>10</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("121","ECOSPORT ","11");</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3883,11 +4368,15 @@
         <v>10</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("122","FIESTA ","11");</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3898,11 +4387,15 @@
         <v>10</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("123","FOCUS ","11");</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3913,11 +4406,15 @@
         <v>10</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("124","KA ","11");</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3928,11 +4425,15 @@
         <v>10</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("125","KUGA ","11");</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3943,11 +4444,15 @@
         <v>10</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("126","MONDEO ","11");</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3958,11 +4463,15 @@
         <v>10</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("127","S-MAX ","11");</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3973,11 +4482,15 @@
         <v>10</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("128","TOURNEO CONNECT ","11");</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3988,11 +4501,15 @@
         <v>10</v>
       </c>
       <c r="D130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into modeles values ("129","TOURNEO COURIER ","11");</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4003,11 +4520,15 @@
         <v>10</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="3">VLOOKUP(C131,J:L,2,0)</f>
+        <f t="shared" ref="D131:D194" si="5">VLOOKUP(C131,J:L,2,0)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E194" si="6">"insert into modeles values ("""&amp;A131&amp;""","""&amp;B131&amp;""","""&amp;D131&amp;""");"</f>
+        <v>insert into modeles values ("130","TOURNEO CUSTOM ","11");</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4018,11 +4539,15 @@
         <v>10</v>
       </c>
       <c r="D132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("131","TRANSIT ","11");</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4033,11 +4558,15 @@
         <v>10</v>
       </c>
       <c r="D133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("132","TRANSIT CUSTOM ","11");</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4048,11 +4577,15 @@
         <v>11</v>
       </c>
       <c r="D134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("133","ACCORD ","12");</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4063,11 +4596,15 @@
         <v>11</v>
       </c>
       <c r="D135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("134","CIVIC ","12");</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4078,11 +4615,15 @@
         <v>11</v>
       </c>
       <c r="D136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("135","CR-V ","12");</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4093,11 +4634,15 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("136","CR-Z ","12");</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4108,11 +4653,15 @@
         <v>11</v>
       </c>
       <c r="D138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("137","INSIGHT ","12");</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4123,11 +4672,15 @@
         <v>11</v>
       </c>
       <c r="D139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("138","JAZZ ","12");</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4138,11 +4691,15 @@
         <v>12</v>
       </c>
       <c r="D140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("139","GENESIS ","13");</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4153,11 +4710,15 @@
         <v>12</v>
       </c>
       <c r="D141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("140","I 10 ","13");</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4168,11 +4729,15 @@
         <v>12</v>
       </c>
       <c r="D142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("141","I 20 ","13");</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4183,11 +4748,15 @@
         <v>12</v>
       </c>
       <c r="D143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("142","I 30 ","13");</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4198,11 +4767,15 @@
         <v>12</v>
       </c>
       <c r="D144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("143","I 40 ","13");</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4213,11 +4786,15 @@
         <v>12</v>
       </c>
       <c r="D145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("144","IX 20 ","13");</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4228,11 +4805,15 @@
         <v>12</v>
       </c>
       <c r="D146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("145","IX 35 ","13");</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4243,11 +4824,15 @@
         <v>12</v>
       </c>
       <c r="D147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("146","SANTA FE ","13");</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4258,11 +4843,15 @@
         <v>12</v>
       </c>
       <c r="D148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("147","VELOSTER ","13");</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4273,11 +4862,15 @@
         <v>13</v>
       </c>
       <c r="D149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("148","Q50 ","14");</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4288,11 +4881,15 @@
         <v>13</v>
       </c>
       <c r="D150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("149","Q60 ","14");</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4303,11 +4900,15 @@
         <v>13</v>
       </c>
       <c r="D151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("150","Q70 ","14");</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4318,11 +4919,15 @@
         <v>13</v>
       </c>
       <c r="D152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("151","QX50 ","14");</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4333,11 +4938,15 @@
         <v>13</v>
       </c>
       <c r="D153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("152","QX70 ","14");</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4348,11 +4957,15 @@
         <v>14</v>
       </c>
       <c r="D154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("153","F-TYPE ","15");</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4363,11 +4976,15 @@
         <v>14</v>
       </c>
       <c r="D155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("154","XF ","15");</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4378,11 +4995,15 @@
         <v>14</v>
       </c>
       <c r="D156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("155","XJ ","15");</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4393,11 +5014,15 @@
         <v>15</v>
       </c>
       <c r="D157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("156","CHEROKEE ","16");</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4408,11 +5033,15 @@
         <v>15</v>
       </c>
       <c r="D158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("157","COMPASS ","16");</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4423,11 +5052,15 @@
         <v>15</v>
       </c>
       <c r="D159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("158","GRAND CHEROKEE ","16");</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4438,11 +5071,15 @@
         <v>15</v>
       </c>
       <c r="D160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("159","WRANGLER ","16");</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4453,11 +5090,15 @@
         <v>16</v>
       </c>
       <c r="D161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("160","CARENS ","17");</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4468,11 +5109,15 @@
         <v>16</v>
       </c>
       <c r="D162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("161","CEED ","17");</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4483,11 +5128,15 @@
         <v>16</v>
       </c>
       <c r="D163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("162","OPTIMA ","17");</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4498,11 +5147,15 @@
         <v>16</v>
       </c>
       <c r="D164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("163","PICANTO ","17");</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4513,11 +5166,15 @@
         <v>16</v>
       </c>
       <c r="D165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("164","RIO ","17");</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4528,11 +5185,15 @@
         <v>16</v>
       </c>
       <c r="D166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("165","SORENTO ","17");</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4543,11 +5204,15 @@
         <v>16</v>
       </c>
       <c r="D167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("166","SOUL ","17");</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4558,11 +5223,15 @@
         <v>16</v>
       </c>
       <c r="D168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("167","SPORTAGE ","17");</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4573,11 +5242,15 @@
         <v>16</v>
       </c>
       <c r="D169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("168","VENGA ","17");</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4588,11 +5261,15 @@
         <v>17</v>
       </c>
       <c r="D170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("169","NIVA ","18");</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4603,11 +5280,15 @@
         <v>18</v>
       </c>
       <c r="D171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("170","AVENTADOR ","19");</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4618,11 +5299,15 @@
         <v>18</v>
       </c>
       <c r="D172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("171","GALLARDO ","19");</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4633,11 +5318,15 @@
         <v>18</v>
       </c>
       <c r="D173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("172","HURACAN ","19");</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4648,11 +5337,15 @@
         <v>19</v>
       </c>
       <c r="D174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("173","DELTA ","20");</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4663,11 +5356,15 @@
         <v>19</v>
       </c>
       <c r="D175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("174","FLAVIA ","20");</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4678,11 +5375,15 @@
         <v>19</v>
       </c>
       <c r="D176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("175","MUSA ","20");</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4693,11 +5394,15 @@
         <v>19</v>
       </c>
       <c r="D177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("176","THEMA ","20");</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4708,11 +5413,15 @@
         <v>19</v>
       </c>
       <c r="D178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("177","VOYAGER ","20");</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4723,11 +5432,15 @@
         <v>19</v>
       </c>
       <c r="D179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("178","YPSILON ","20");</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4738,11 +5451,15 @@
         <v>20</v>
       </c>
       <c r="D180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("179","DISCOVERY ","21");</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4753,11 +5470,15 @@
         <v>20</v>
       </c>
       <c r="D181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("180","DISCOVERY SPORT ","21");</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4768,11 +5489,15 @@
         <v>20</v>
       </c>
       <c r="D182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("181","FREELANDER ","21");</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4783,11 +5508,15 @@
         <v>20</v>
       </c>
       <c r="D183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("182","RANGE ROVER ","21");</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4798,11 +5527,15 @@
         <v>20</v>
       </c>
       <c r="D184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("183","RANGE ROVER EVOQUE ","21");</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4813,11 +5546,15 @@
         <v>20</v>
       </c>
       <c r="D185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("184","RANGE ROVER SPORT ","21");</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4828,11 +5565,15 @@
         <v>21</v>
       </c>
       <c r="D186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("185","CT ","22");</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4843,11 +5584,15 @@
         <v>21</v>
       </c>
       <c r="D187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("186","GS ","22");</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4858,11 +5603,15 @@
         <v>21</v>
       </c>
       <c r="D188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("187","IS ","22");</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4873,11 +5622,15 @@
         <v>21</v>
       </c>
       <c r="D189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("188","LFA ","22");</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4888,11 +5641,15 @@
         <v>21</v>
       </c>
       <c r="D190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("189","LS ","22");</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4903,11 +5660,15 @@
         <v>21</v>
       </c>
       <c r="D191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("190","NX ","22");</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4918,11 +5679,15 @@
         <v>21</v>
       </c>
       <c r="D192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("191","RC ","22");</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4933,11 +5698,15 @@
         <v>21</v>
       </c>
       <c r="D193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("192","RX ","22");</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4948,11 +5717,15 @@
         <v>22</v>
       </c>
       <c r="D194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into modeles values ("193","GHIBLI ","23");</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4963,11 +5736,15 @@
         <v>22</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="4">VLOOKUP(C195,J:L,2,0)</f>
+        <f t="shared" ref="D195:D258" si="7">VLOOKUP(C195,J:L,2,0)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="str">
+        <f t="shared" ref="E195:E258" si="8">"insert into modeles values ("""&amp;A195&amp;""","""&amp;B195&amp;""","""&amp;D195&amp;""");"</f>
+        <v>insert into modeles values ("194","GRANCABRIO ","23");</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4978,11 +5755,15 @@
         <v>22</v>
       </c>
       <c r="D196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("195","GRANTURISMO ","23");</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4993,11 +5774,15 @@
         <v>22</v>
       </c>
       <c r="D197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("196","QUATTROPORTE ","23");</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5008,11 +5793,15 @@
         <v>23</v>
       </c>
       <c r="D198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("197","2","24");</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5023,11 +5812,15 @@
         <v>23</v>
       </c>
       <c r="D199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("198","3","24");</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5038,11 +5831,15 @@
         <v>23</v>
       </c>
       <c r="D200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("199","5","24");</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5053,11 +5850,15 @@
         <v>23</v>
       </c>
       <c r="D201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("200","6","24");</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5068,11 +5869,15 @@
         <v>23</v>
       </c>
       <c r="D202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("201","CX-5 ","24");</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5083,11 +5888,15 @@
         <v>23</v>
       </c>
       <c r="D203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("202","MX-5 ","24");</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5098,11 +5907,15 @@
         <v>24</v>
       </c>
       <c r="D204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("203","A 160 ","25");</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5113,11 +5926,15 @@
         <v>24</v>
       </c>
       <c r="D205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("204","A 180 ","25");</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5128,11 +5945,15 @@
         <v>24</v>
       </c>
       <c r="D206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("205","A 200 ","25");</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5143,11 +5964,15 @@
         <v>24</v>
       </c>
       <c r="D207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("206","A 220 ","25");</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5158,11 +5983,15 @@
         <v>24</v>
       </c>
       <c r="D208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("207","A 250 ","25");</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5173,11 +6002,15 @@
         <v>24</v>
       </c>
       <c r="D209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("208","A 45 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5188,11 +6021,15 @@
         <v>24</v>
       </c>
       <c r="D210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("209","AMG GT ","25");</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5203,11 +6040,15 @@
         <v>24</v>
       </c>
       <c r="D211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("210","AMG GT S ","25");</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5218,11 +6059,15 @@
         <v>24</v>
       </c>
       <c r="D212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("211","B 160 ","25");</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5233,11 +6078,15 @@
         <v>24</v>
       </c>
       <c r="D213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("212","B 180 ","25");</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5248,11 +6097,15 @@
         <v>24</v>
       </c>
       <c r="D214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("213","B 200 ","25");</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5263,11 +6116,15 @@
         <v>24</v>
       </c>
       <c r="D215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("214","B 220 ","25");</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5278,11 +6135,15 @@
         <v>24</v>
       </c>
       <c r="D216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("215","B 250 ","25");</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5293,11 +6154,15 @@
         <v>24</v>
       </c>
       <c r="D217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("216","B ED ","25");</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5308,11 +6173,15 @@
         <v>24</v>
       </c>
       <c r="D218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("217","C 180 ","25");</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5323,11 +6192,15 @@
         <v>24</v>
       </c>
       <c r="D219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("218","C 200 ","25");</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5338,11 +6211,15 @@
         <v>24</v>
       </c>
       <c r="D220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("219","C 220 ","25");</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5353,11 +6230,15 @@
         <v>24</v>
       </c>
       <c r="D221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("220","C 250 ","25");</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5368,11 +6249,15 @@
         <v>24</v>
       </c>
       <c r="D222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("221","C 300 ","25");</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5383,11 +6268,15 @@
         <v>24</v>
       </c>
       <c r="D223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("222","C 350 ","25");</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5398,11 +6287,15 @@
         <v>24</v>
       </c>
       <c r="D224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("223","C 400 ","25");</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5413,11 +6306,15 @@
         <v>24</v>
       </c>
       <c r="D225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("224","C 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5428,11 +6325,15 @@
         <v>24</v>
       </c>
       <c r="D226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("225","C 63 S-AMG ","25");</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5443,11 +6344,15 @@
         <v>24</v>
       </c>
       <c r="D227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("226","CITAN ","25");</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5458,11 +6363,15 @@
         <v>24</v>
       </c>
       <c r="D228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("227","CL 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5473,11 +6382,15 @@
         <v>24</v>
       </c>
       <c r="D229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("228","CLA 180 ","25");</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5488,11 +6401,15 @@
         <v>24</v>
       </c>
       <c r="D230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("229","CLA 200 ","25");</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5503,11 +6420,15 @@
         <v>24</v>
       </c>
       <c r="D231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("230","CLA 220 ","25");</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5518,11 +6439,15 @@
         <v>24</v>
       </c>
       <c r="D232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("231","CLA 250 ","25");</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5533,11 +6458,15 @@
         <v>24</v>
       </c>
       <c r="D233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("232","CLA 45 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5548,11 +6477,15 @@
         <v>24</v>
       </c>
       <c r="D234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("233","CLASSE V ","25");</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5563,11 +6496,15 @@
         <v>24</v>
       </c>
       <c r="D235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("234","CLS 220 ","25");</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5578,11 +6515,15 @@
         <v>24</v>
       </c>
       <c r="D236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("235","CLS 250 ","25");</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5593,11 +6534,15 @@
         <v>24</v>
       </c>
       <c r="D237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("236","CLS 350 ","25");</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5608,11 +6553,15 @@
         <v>24</v>
       </c>
       <c r="D238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("237","CLS 400 ","25");</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5623,11 +6572,15 @@
         <v>24</v>
       </c>
       <c r="D239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("238","CLS 500 ","25");</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5638,11 +6591,15 @@
         <v>24</v>
       </c>
       <c r="D240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("239","CLS 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5653,11 +6610,15 @@
         <v>24</v>
       </c>
       <c r="D241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("240","E 200 ","25");</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5668,11 +6629,15 @@
         <v>24</v>
       </c>
       <c r="D242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("241","E 220 ","25");</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5683,11 +6648,15 @@
         <v>24</v>
       </c>
       <c r="D243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("242","E 250 ","25");</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5698,11 +6667,15 @@
         <v>24</v>
       </c>
       <c r="D244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("243","E 300 ","25");</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5713,11 +6686,15 @@
         <v>24</v>
       </c>
       <c r="D245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("244","E 320 ","25");</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5728,11 +6705,15 @@
         <v>24</v>
       </c>
       <c r="D246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("245","E 350 ","25");</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5743,11 +6724,15 @@
         <v>24</v>
       </c>
       <c r="D247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("246","E 400 ","25");</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5758,11 +6743,15 @@
         <v>24</v>
       </c>
       <c r="D248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("247","E 500 ","25");</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5773,11 +6762,15 @@
         <v>24</v>
       </c>
       <c r="D249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("248","E 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5788,11 +6781,15 @@
         <v>24</v>
       </c>
       <c r="D250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("249","G 350 ","25");</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5803,11 +6800,15 @@
         <v>24</v>
       </c>
       <c r="D251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("250","G 500 ","25");</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5818,11 +6819,15 @@
         <v>24</v>
       </c>
       <c r="D252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("251","G 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5833,11 +6838,15 @@
         <v>24</v>
       </c>
       <c r="D253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("252","G 65 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5848,11 +6857,15 @@
         <v>24</v>
       </c>
       <c r="D254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("253","GL 350 ","25");</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5863,11 +6876,15 @@
         <v>24</v>
       </c>
       <c r="D255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("254","GL 400 ","25");</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5878,11 +6895,15 @@
         <v>24</v>
       </c>
       <c r="D256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("255","GL 500 ","25");</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5893,11 +6914,15 @@
         <v>24</v>
       </c>
       <c r="D257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("256","GL 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5908,11 +6933,15 @@
         <v>24</v>
       </c>
       <c r="D258">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into modeles values ("257","GLA 180 ","25");</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5923,11 +6952,15 @@
         <v>24</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="5">VLOOKUP(C259,J:L,2,0)</f>
+        <f t="shared" ref="D259:D322" si="9">VLOOKUP(C259,J:L,2,0)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="str">
+        <f t="shared" ref="E259:E322" si="10">"insert into modeles values ("""&amp;A259&amp;""","""&amp;B259&amp;""","""&amp;D259&amp;""");"</f>
+        <v>insert into modeles values ("258","GLA 200 ","25");</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5938,11 +6971,15 @@
         <v>24</v>
       </c>
       <c r="D260">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("259","GLA 220 ","25");</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5953,11 +6990,15 @@
         <v>24</v>
       </c>
       <c r="D261">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("260","GLA 250 ","25");</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5968,11 +7009,15 @@
         <v>24</v>
       </c>
       <c r="D262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("261","GLA 45 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5983,11 +7028,15 @@
         <v>24</v>
       </c>
       <c r="D263">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("262","ML 250 ","25");</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5998,11 +7047,15 @@
         <v>24</v>
       </c>
       <c r="D264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("263","ML 350 ","25");</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6013,11 +7066,15 @@
         <v>24</v>
       </c>
       <c r="D265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("264","ML 400 ","25");</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6028,11 +7085,15 @@
         <v>24</v>
       </c>
       <c r="D266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("265","ML 500 ","25");</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6043,11 +7104,15 @@
         <v>24</v>
       </c>
       <c r="D267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("266","ML 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6058,11 +7123,15 @@
         <v>24</v>
       </c>
       <c r="D268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("267","S 300 ","25");</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6073,11 +7142,15 @@
         <v>24</v>
       </c>
       <c r="D269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("268","S 350 ","25");</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6088,11 +7161,15 @@
         <v>24</v>
       </c>
       <c r="D270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("269","S 400 ","25");</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6103,11 +7180,15 @@
         <v>24</v>
       </c>
       <c r="D271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("270","S 500 ","25");</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6118,11 +7199,15 @@
         <v>24</v>
       </c>
       <c r="D272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("271","S 600 ","25");</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6133,11 +7218,15 @@
         <v>24</v>
       </c>
       <c r="D273">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("272","S 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6148,11 +7237,15 @@
         <v>24</v>
       </c>
       <c r="D274">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("273","S 65 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6163,11 +7256,15 @@
         <v>24</v>
       </c>
       <c r="D275">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("274","SL 350 ","25");</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6178,11 +7275,15 @@
         <v>24</v>
       </c>
       <c r="D276">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("275","SL 400 ","25");</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6193,11 +7294,15 @@
         <v>24</v>
       </c>
       <c r="D277">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("276","SL 500 ","25");</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6208,11 +7313,15 @@
         <v>24</v>
       </c>
       <c r="D278">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("277","SL 63 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6223,11 +7332,15 @@
         <v>24</v>
       </c>
       <c r="D279">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("278","SL 65 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6238,11 +7351,15 @@
         <v>24</v>
       </c>
       <c r="D280">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("279","SLK 200 ","25");</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6253,11 +7370,15 @@
         <v>24</v>
       </c>
       <c r="D281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("280","SLK 250 ","25");</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6268,11 +7389,15 @@
         <v>24</v>
       </c>
       <c r="D282">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("281","SLK 350 ","25");</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6283,11 +7408,15 @@
         <v>24</v>
       </c>
       <c r="D283">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("282","SLK 55 AMG ","25");</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6298,11 +7427,15 @@
         <v>24</v>
       </c>
       <c r="D284">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("283","SLS AMG GT S ","25");</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6313,11 +7446,15 @@
         <v>24</v>
       </c>
       <c r="D285">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("284","SPRINTER ","25");</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6328,11 +7465,15 @@
         <v>24</v>
       </c>
       <c r="D286">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("285","VITO ","25");</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6343,11 +7484,15 @@
         <v>25</v>
       </c>
       <c r="D287">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("286","CABRIO ","26");</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6358,11 +7503,15 @@
         <v>25</v>
       </c>
       <c r="D288">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("287","COUNTRYMAN ","26");</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6373,11 +7522,15 @@
         <v>25</v>
       </c>
       <c r="D289">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("288","COUPE ","26");</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6388,11 +7541,15 @@
         <v>25</v>
       </c>
       <c r="D290">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("289","MINI ","26");</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6403,11 +7560,15 @@
         <v>25</v>
       </c>
       <c r="D291">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("290","PACEMAN ","26");</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6418,11 +7579,15 @@
         <v>25</v>
       </c>
       <c r="D292">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("291","ROADSTER ","26");</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6433,11 +7598,15 @@
         <v>26</v>
       </c>
       <c r="D293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("292","ASX ","27");</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6448,11 +7617,15 @@
         <v>26</v>
       </c>
       <c r="D294">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("293","I-MIEV ","27");</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6463,11 +7636,15 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("294","OUTLANDER ","27");</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6478,11 +7655,15 @@
         <v>26</v>
       </c>
       <c r="D296">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("295","PAJERO ","27");</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6493,11 +7674,15 @@
         <v>26</v>
       </c>
       <c r="D297">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("296","SPACE STAR ","27");</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6508,11 +7693,15 @@
         <v>27</v>
       </c>
       <c r="D298">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("297","370Z ","28");</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6523,11 +7712,15 @@
         <v>27</v>
       </c>
       <c r="D299">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("298","GT-R ","28");</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6538,11 +7731,15 @@
         <v>27</v>
       </c>
       <c r="D300">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("299","JUKE ","28");</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6553,11 +7750,15 @@
         <v>27</v>
       </c>
       <c r="D301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("300","LEAF ","28");</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6568,11 +7769,15 @@
         <v>27</v>
       </c>
       <c r="D302">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("301","MICRA ","28");</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6583,11 +7788,15 @@
         <v>27</v>
       </c>
       <c r="D303">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("302","MURANO ","28");</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6598,11 +7807,15 @@
         <v>27</v>
       </c>
       <c r="D304">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("303","NOTE ","28");</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6613,11 +7826,15 @@
         <v>27</v>
       </c>
       <c r="D305">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("304","NV200 ","28");</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6628,11 +7845,15 @@
         <v>27</v>
       </c>
       <c r="D306">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("305","NV300 ","28");</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6643,11 +7864,15 @@
         <v>27</v>
       </c>
       <c r="D307">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("306","NV400 ","28");</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6658,11 +7883,15 @@
         <v>27</v>
       </c>
       <c r="D308">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("307","PULSAR ","28");</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6673,11 +7902,15 @@
         <v>27</v>
       </c>
       <c r="D309">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("308","QASHQAI ","28");</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6688,11 +7921,15 @@
         <v>27</v>
       </c>
       <c r="D310">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("309","X-TRAIL ","28");</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6703,11 +7940,15 @@
         <v>28</v>
       </c>
       <c r="D311">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("310","ADAM ","29");</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6718,11 +7959,15 @@
         <v>28</v>
       </c>
       <c r="D312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("311","AGILA ","29");</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6733,11 +7978,15 @@
         <v>28</v>
       </c>
       <c r="D313">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("312","AMPERA ","29");</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6748,11 +7997,15 @@
         <v>28</v>
       </c>
       <c r="D314">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("313","ANTARA ","29");</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6763,11 +8016,15 @@
         <v>28</v>
       </c>
       <c r="D315">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("314","ASTRA ","29");</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6778,11 +8035,15 @@
         <v>28</v>
       </c>
       <c r="D316">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("315","CASCADA ","29");</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6793,11 +8054,15 @@
         <v>28</v>
       </c>
       <c r="D317">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("316","COMBO ","29");</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6808,11 +8073,15 @@
         <v>28</v>
       </c>
       <c r="D318">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("317","CORSA ","29");</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6823,11 +8092,15 @@
         <v>28</v>
       </c>
       <c r="D319">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("318","INSIGNIA ","29");</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6838,11 +8111,15 @@
         <v>28</v>
       </c>
       <c r="D320">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("319","MERIVA ","29");</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6853,11 +8130,15 @@
         <v>28</v>
       </c>
       <c r="D321">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("320","MOKKA ","29");</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6868,11 +8149,15 @@
         <v>28</v>
       </c>
       <c r="D322">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into modeles values ("321","MOVANO ","29");</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6883,11 +8168,15 @@
         <v>28</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="6">VLOOKUP(C323,J:L,2,0)</f>
+        <f t="shared" ref="D323:D386" si="11">VLOOKUP(C323,J:L,2,0)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="str">
+        <f t="shared" ref="E323:E386" si="12">"insert into modeles values ("""&amp;A323&amp;""","""&amp;B323&amp;""","""&amp;D323&amp;""");"</f>
+        <v>insert into modeles values ("322","VIVARO ","29");</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -6898,11 +8187,15 @@
         <v>28</v>
       </c>
       <c r="D324">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("323","ZAFIRA ","29");</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -6913,11 +8206,15 @@
         <v>29</v>
       </c>
       <c r="D325">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("324","108","30");</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -6928,11 +8225,15 @@
         <v>29</v>
       </c>
       <c r="D326">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("325","2008","30");</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -6943,11 +8244,15 @@
         <v>29</v>
       </c>
       <c r="D327">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("326","207","30");</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -6958,11 +8263,15 @@
         <v>29</v>
       </c>
       <c r="D328">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("327","208","30");</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -6973,11 +8282,15 @@
         <v>29</v>
       </c>
       <c r="D329">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("328","3008","30");</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -6988,11 +8301,15 @@
         <v>29</v>
       </c>
       <c r="D330">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("329","308","30");</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7003,11 +8320,15 @@
         <v>29</v>
       </c>
       <c r="D331">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("330","4008","30");</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7018,11 +8339,15 @@
         <v>29</v>
       </c>
       <c r="D332">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("331","5008","30");</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7033,11 +8358,15 @@
         <v>29</v>
       </c>
       <c r="D333">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("332","508","30");</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7048,11 +8377,15 @@
         <v>29</v>
       </c>
       <c r="D334">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("333","BIPPER ","30");</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7063,11 +8396,15 @@
         <v>29</v>
       </c>
       <c r="D335">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("334","BOXER ","30");</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7078,11 +8415,15 @@
         <v>29</v>
       </c>
       <c r="D336">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("335","EXPERT ","30");</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7093,11 +8434,15 @@
         <v>29</v>
       </c>
       <c r="D337">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("336","ION ","30");</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7108,11 +8453,15 @@
         <v>29</v>
       </c>
       <c r="D338">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("337","PARTNER ","30");</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7123,11 +8472,15 @@
         <v>29</v>
       </c>
       <c r="D339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("338","RCZ ","30");</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7138,11 +8491,15 @@
         <v>30</v>
       </c>
       <c r="D340">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("339","911","31");</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7153,11 +8510,15 @@
         <v>30</v>
       </c>
       <c r="D341">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("340","918","31");</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7168,11 +8529,15 @@
         <v>30</v>
       </c>
       <c r="D342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("341","BOXSTER ","31");</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7183,11 +8548,15 @@
         <v>30</v>
       </c>
       <c r="D343">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("342","CAYENNE ","31");</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7198,11 +8567,15 @@
         <v>30</v>
       </c>
       <c r="D344">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("343","CAYMAN ","31");</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7213,11 +8586,15 @@
         <v>30</v>
       </c>
       <c r="D345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("344","MACAN ","31");</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7228,11 +8605,15 @@
         <v>30</v>
       </c>
       <c r="D346">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("345","PANAMERA ","31");</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7243,11 +8624,15 @@
         <v>31</v>
       </c>
       <c r="D347">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("346","CAPTUR ","32");</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7258,11 +8643,15 @@
         <v>31</v>
       </c>
       <c r="D348">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("347","CLIO ","32");</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7273,11 +8662,15 @@
         <v>31</v>
       </c>
       <c r="D349">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("348","ESPACE ","32");</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7288,11 +8681,15 @@
         <v>31</v>
       </c>
       <c r="D350">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("349","KANGOO ","32");</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7303,11 +8700,15 @@
         <v>31</v>
       </c>
       <c r="D351">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("350","KOLEOS ","32");</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7318,11 +8719,15 @@
         <v>31</v>
       </c>
       <c r="D352">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("351","LAGUNA ","32");</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7333,11 +8738,15 @@
         <v>31</v>
       </c>
       <c r="D353">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("352","LATITUDE ","32");</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7348,11 +8757,15 @@
         <v>31</v>
       </c>
       <c r="D354">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("353","MASTER ","32");</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7363,11 +8776,15 @@
         <v>31</v>
       </c>
       <c r="D355">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("354","MEGANE ","32");</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7378,11 +8795,15 @@
         <v>31</v>
       </c>
       <c r="D356">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("355","SCENIC ","32");</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7393,11 +8814,15 @@
         <v>31</v>
       </c>
       <c r="D357">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("356","TRAFIC ","32");</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7408,11 +8833,15 @@
         <v>31</v>
       </c>
       <c r="D358">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("357","TWINGO ","32");</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -7423,11 +8852,15 @@
         <v>31</v>
       </c>
       <c r="D359">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("358","ZOE ","32");</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -7438,11 +8871,15 @@
         <v>32</v>
       </c>
       <c r="D360">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("359","GHOST ","33");</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7453,11 +8890,15 @@
         <v>32</v>
       </c>
       <c r="D361">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("360","PHANTOM ","33");</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7468,11 +8909,15 @@
         <v>32</v>
       </c>
       <c r="D362">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("361","WRAITH ","33");</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7483,11 +8928,15 @@
         <v>33</v>
       </c>
       <c r="D363">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("362","ALHAMBRA ","34");</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7498,11 +8947,15 @@
         <v>33</v>
       </c>
       <c r="D364">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("363","ALTEA ","34");</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7513,11 +8966,15 @@
         <v>33</v>
       </c>
       <c r="D365">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("364","IBIZA ","34");</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7528,11 +8985,15 @@
         <v>33</v>
       </c>
       <c r="D366">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("365","LEON ","34");</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7543,11 +9004,15 @@
         <v>33</v>
       </c>
       <c r="D367">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("366","MII ","34");</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7558,11 +9023,15 @@
         <v>33</v>
       </c>
       <c r="D368">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("367","TOLEDO ","34");</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7573,11 +9042,15 @@
         <v>34</v>
       </c>
       <c r="D369">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("368","CITIGO ","35");</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7588,11 +9061,15 @@
         <v>34</v>
       </c>
       <c r="D370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("369","FABIA ","35");</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7603,11 +9080,15 @@
         <v>34</v>
       </c>
       <c r="D371">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("370","OCTAVIA ","35");</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7618,11 +9099,15 @@
         <v>34</v>
       </c>
       <c r="D372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("371","RAPID ","35");</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7633,11 +9118,15 @@
         <v>34</v>
       </c>
       <c r="D373">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("372","ROOMSTER ","35");</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7648,11 +9137,15 @@
         <v>34</v>
       </c>
       <c r="D374">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("373","SUPERB ","35");</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7663,11 +9156,15 @@
         <v>34</v>
       </c>
       <c r="D375">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("374","YETI ","35");</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7678,11 +9175,15 @@
         <v>35</v>
       </c>
       <c r="D376">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("375","FORFOUR ","36");</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7693,11 +9194,15 @@
         <v>35</v>
       </c>
       <c r="D377">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("376","FORTWO ","36");</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7708,11 +9213,15 @@
         <v>36</v>
       </c>
       <c r="D378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("377","KORANDO ","37");</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7723,11 +9232,15 @@
         <v>36</v>
       </c>
       <c r="D379">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("378","REXTON ","37");</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7738,11 +9251,15 @@
         <v>36</v>
       </c>
       <c r="D380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("379","RODIUS ","37");</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7753,11 +9270,15 @@
         <v>37</v>
       </c>
       <c r="D381">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("380","BRZ ","38");</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7768,11 +9289,15 @@
         <v>37</v>
       </c>
       <c r="D382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("381","FORESTER ","38");</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7783,11 +9308,15 @@
         <v>37</v>
       </c>
       <c r="D383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("382","WRX ","38");</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7798,11 +9327,15 @@
         <v>37</v>
       </c>
       <c r="D384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("383","XV ","38");</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7813,11 +9346,15 @@
         <v>38</v>
       </c>
       <c r="D385">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("384","CELERIO ","39");</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7828,11 +9365,15 @@
         <v>38</v>
       </c>
       <c r="D386">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into modeles values ("385","JIMNY ","39");</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7843,11 +9384,15 @@
         <v>38</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D426" si="7">VLOOKUP(C387,J:L,2,0)</f>
+        <f t="shared" ref="D387:D426" si="13">VLOOKUP(C387,J:L,2,0)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" t="str">
+        <f t="shared" ref="E387:E426" si="14">"insert into modeles values ("""&amp;A387&amp;""","""&amp;B387&amp;""","""&amp;D387&amp;""");"</f>
+        <v>insert into modeles values ("386","SWIFT ","39");</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7858,11 +9403,15 @@
         <v>38</v>
       </c>
       <c r="D388">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("387","SX4 ","39");</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7873,11 +9422,15 @@
         <v>38</v>
       </c>
       <c r="D389">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("388","VITARA ","39");</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -7888,11 +9441,15 @@
         <v>39</v>
       </c>
       <c r="D390">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("389","MODEL S ","40");</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -7903,11 +9460,15 @@
         <v>40</v>
       </c>
       <c r="D391">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("390","AURIS ","41");</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -7918,11 +9479,15 @@
         <v>40</v>
       </c>
       <c r="D392">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("391","AVENSIS ","41");</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -7933,11 +9498,15 @@
         <v>40</v>
       </c>
       <c r="D393">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("392","AYGO ","41");</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -7948,11 +9517,15 @@
         <v>40</v>
       </c>
       <c r="D394">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("393","GT86 ","41");</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -7963,11 +9536,15 @@
         <v>40</v>
       </c>
       <c r="D395">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("394","IQ ","41");</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -7978,11 +9555,15 @@
         <v>40</v>
       </c>
       <c r="D396">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("395","LAND CRUISER ","41");</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -7993,11 +9574,15 @@
         <v>40</v>
       </c>
       <c r="D397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("396","PRIUS ","41");</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8008,11 +9593,15 @@
         <v>40</v>
       </c>
       <c r="D398">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("397","PRIUS+ ","41");</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8023,11 +9612,15 @@
         <v>40</v>
       </c>
       <c r="D399">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("398","RAV4 ","41");</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8038,11 +9631,15 @@
         <v>40</v>
       </c>
       <c r="D400">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("399","VERSO ","41");</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8053,11 +9650,15 @@
         <v>40</v>
       </c>
       <c r="D401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("400","VERSO S ","41");</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -8068,11 +9669,15 @@
         <v>40</v>
       </c>
       <c r="D402">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("401","YARIS ","41");</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -8083,11 +9688,15 @@
         <v>41</v>
       </c>
       <c r="D403">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("402","CC ","42");</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -8098,11 +9707,15 @@
         <v>41</v>
       </c>
       <c r="D404">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("403","COCCINELLE ","42");</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -8113,11 +9726,15 @@
         <v>41</v>
       </c>
       <c r="D405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("404","CRAFTER ","42");</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -8128,11 +9745,15 @@
         <v>41</v>
       </c>
       <c r="D406">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("405","EOS ","42");</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -8143,11 +9764,15 @@
         <v>41</v>
       </c>
       <c r="D407">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("406","GOLF ","42");</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -8158,11 +9783,15 @@
         <v>41</v>
       </c>
       <c r="D408">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("407","GOLF SPORTSVAN ","42");</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -8173,11 +9802,15 @@
         <v>41</v>
       </c>
       <c r="D409">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("408","JETTA ","42");</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -8188,11 +9821,15 @@
         <v>41</v>
       </c>
       <c r="D410">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("409","PASSAT ","42");</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -8203,11 +9840,15 @@
         <v>41</v>
       </c>
       <c r="D411">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("410","PHAETON ","42");</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -8218,11 +9859,15 @@
         <v>41</v>
       </c>
       <c r="D412">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("411","POLO ","42");</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -8233,11 +9878,15 @@
         <v>41</v>
       </c>
       <c r="D413">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("412","SCIROCCO ","42");</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -8248,11 +9897,15 @@
         <v>41</v>
       </c>
       <c r="D414">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("413","SHARAN ","42");</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -8263,11 +9916,15 @@
         <v>41</v>
       </c>
       <c r="D415">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("414","TIGUAN ","42");</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -8278,11 +9935,15 @@
         <v>41</v>
       </c>
       <c r="D416">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("415","TOUAREG ","42");</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -8293,11 +9954,15 @@
         <v>41</v>
       </c>
       <c r="D417">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("416","TOURAN ","42");</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -8308,11 +9973,15 @@
         <v>41</v>
       </c>
       <c r="D418">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("417","UP! ","42");</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -8323,11 +9992,15 @@
         <v>42</v>
       </c>
       <c r="D419">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("418","S60 ","43");</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -8338,11 +10011,15 @@
         <v>42</v>
       </c>
       <c r="D420">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("419","S80 ","43");</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -8353,11 +10030,15 @@
         <v>42</v>
       </c>
       <c r="D421">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("420","V40 ","43");</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -8368,11 +10049,15 @@
         <v>42</v>
       </c>
       <c r="D422">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("421","V60 ","43");</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -8383,11 +10068,15 @@
         <v>42</v>
       </c>
       <c r="D423">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("422","V70 ","43");</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -8398,11 +10087,15 @@
         <v>42</v>
       </c>
       <c r="D424">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("423","XC60 ","43");</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -8413,11 +10106,15 @@
         <v>42</v>
       </c>
       <c r="D425">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("424","XC70 ","43");</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8428,8 +10125,12 @@
         <v>42</v>
       </c>
       <c r="D426">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43</v>
+      </c>
+      <c r="E426" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into modeles values ("425","XC90 ","43");</v>
       </c>
     </row>
   </sheetData>
